--- a/SP_Sklad/TempLate/RepByEmployees.xlsx
+++ b/SP_Sklad/TempLate/RepByEmployees.xlsx
@@ -461,6 +461,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,9 +517,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +891,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -907,13 +906,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27" customHeight="1">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="2:6" ht="12.75" customHeight="1">
       <c r="B2" s="1"/>
@@ -957,10 +956,10 @@
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:6" ht="37.5" customHeight="1">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
@@ -972,10 +971,10 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>1</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="13">
         <v>2</v>
       </c>
@@ -987,11 +986,11 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B9" s="37" t="e">
+      <c r="B9" s="38" t="e">
         <f>WbList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="11" t="e">
         <f>WbList_ShortName</f>
         <v>#NAME?</v>
@@ -1009,7 +1008,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1017,8 +1016,8 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
@@ -1030,8 +1029,8 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="21" t="e">
         <f>MeasuresList_ShortName</f>
         <v>#NAME?</v>
@@ -1058,11 +1057,11 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="32.25" customHeight="1">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="10" t="s">
         <v>12</v>
       </c>
@@ -1071,11 +1070,11 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <v>1</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="6">
         <v>3</v>
       </c>
@@ -1084,12 +1083,12 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B18" s="29" t="e">
+      <c r="B18" s="30" t="e">
         <f>KagentList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="16" t="e">
         <f>KagentList_Amount</f>
         <v>#NAME?</v>
